--- a/Hammerton CV/cv_data.xlsx
+++ b/Hammerton CV/cv_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="107">
   <si>
     <t>section</t>
   </si>
@@ -197,6 +197,27 @@
   </si>
   <si>
     <t>Provided pediatric patient care for those needing 24-hour care or on hospice. Responsible for nutrition, hygiene, infection control, medication administration, respiratory status maintenance. Provided support to families of patients and socialization to patients throughout shifts.</t>
+  </si>
+  <si>
+    <t>org</t>
+  </si>
+  <si>
+    <t>Secretary</t>
+  </si>
+  <si>
+    <t>Graduate Scholars of Epidemiology &amp; Biostatistics (GSEB)</t>
+  </si>
+  <si>
+    <t>Member</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eta Sigma Gamma (ESG) | Health Science Honor Society </t>
+  </si>
+  <si>
+    <t>American Public Health Association (APHA)</t>
+  </si>
+  <si>
+    <t>Council of State and Territorial Epidemiologists (CSTE)</t>
   </si>
   <si>
     <t>Name of language</t>
@@ -985,45 +1006,88 @@
     </row>
     <row r="23">
       <c r="A23" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="4"/>
+        <v>61</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="4">
+        <v>2021.0</v>
+      </c>
+      <c r="F23" s="4">
+        <v>2021.0</v>
+      </c>
+      <c r="H23" s="4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="4"/>
-      <c r="B24" s="5"/>
+      <c r="A24" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="C24" s="5"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
+      <c r="D24" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="4">
+        <v>2019.0</v>
+      </c>
+      <c r="F24" s="4">
+        <v>2020.0</v>
+      </c>
       <c r="G24" s="5"/>
-      <c r="H24" s="4"/>
+      <c r="H24" s="4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
+      <c r="A25" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" s="4">
+        <v>2019.0</v>
+      </c>
+      <c r="F25" s="4">
+        <v>2021.0</v>
+      </c>
       <c r="G25" s="5"/>
-      <c r="H25" s="4"/>
+      <c r="H25" s="4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="4"/>
-      <c r="B26" s="5"/>
+      <c r="A26" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="C26" s="5"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
+      <c r="D26" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="4">
+        <v>2021.0</v>
+      </c>
+      <c r="F26" s="4">
+        <v>2021.0</v>
+      </c>
       <c r="G26" s="5"/>
-      <c r="H26" s="4"/>
+      <c r="H26" s="4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="4"/>
@@ -6091,10 +6155,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="10" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
@@ -6123,10 +6187,10 @@
     </row>
     <row r="2">
       <c r="A2" s="12" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
@@ -6155,7 +6219,7 @@
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B3" s="4">
         <v>5.0</v>
@@ -6163,7 +6227,7 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B4" s="4">
         <v>4.5</v>
@@ -6171,7 +6235,7 @@
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B5" s="4">
         <v>4.0</v>
@@ -6179,7 +6243,7 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B6" s="4">
         <v>4.0</v>
@@ -6187,7 +6251,7 @@
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B7" s="4">
         <v>3.5</v>
@@ -6195,7 +6259,7 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B8" s="4">
         <v>3.0</v>
@@ -6203,7 +6267,7 @@
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B9" s="4">
         <v>3.0</v>
@@ -6230,10 +6294,10 @@
   <sheetData>
     <row r="1" ht="33.0" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
@@ -6265,7 +6329,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
@@ -6294,34 +6358,34 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
@@ -9330,13 +9394,13 @@
   <sheetData>
     <row r="1" ht="36.75" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
@@ -9368,65 +9432,65 @@
         <v>2</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/Hammerton CV/cv_data.xlsx
+++ b/Hammerton CV/cv_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="115">
   <si>
     <t>section</t>
   </si>
@@ -73,24 +73,30 @@
     <t>projects</t>
   </si>
   <si>
+    <t>Antibody levels and disease outcomes in a norovirus challenge study (In Progress)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Georgia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MS Thesis Project, Advisor - Dr. Andreas Handel </t>
+  </si>
+  <si>
+    <t>Preterm birth and environmental exposures: Systematic review (In Progress)</t>
+  </si>
+  <si>
+    <t>University of Georgia</t>
+  </si>
+  <si>
+    <t>Research Assisantship, Dr. Jose Cordero</t>
+  </si>
+  <si>
     <t>Prenatal exposure to flame retardants and adverse pregnancy outcomes: A systematic review (In Progress)</t>
   </si>
   <si>
-    <t>University of Georgia</t>
-  </si>
-  <si>
     <t>Contributor, Co-Author</t>
   </si>
   <si>
-    <t>Antibody levels and disease outcomes in a norovirus challenge study (In Progress)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Georgia </t>
-  </si>
-  <si>
-    <t>MS Thesis Project</t>
-  </si>
-  <si>
     <t>certs</t>
   </si>
   <si>
@@ -142,7 +148,19 @@
     <t>Infectious Disease Modeling</t>
   </si>
   <si>
-    <t>Communication, Organization</t>
+    <t xml:space="preserve">Understanding of infectious disease modeling concepts, and experience in fitting infectious disease models </t>
+  </si>
+  <si>
+    <t>Organization</t>
+  </si>
+  <si>
+    <t>Skilled in managing multiple tasks and projects, maintaining high quality of work</t>
+  </si>
+  <si>
+    <t>Communication</t>
+  </si>
+  <si>
+    <t>Participated in clinical, research, and private groups requiring large amounts of communication and collaboration, building experience in healthy and efficient communication skills</t>
   </si>
   <si>
     <t>Health Education</t>
@@ -166,7 +184,7 @@
     <t xml:space="preserve">University of Georgia, Department of Epidemiology &amp; Biostatistics </t>
   </si>
   <si>
-    <t xml:space="preserve">Assist in administrative departmental tasks, faculty retreats/meeting planning, and department event planning. Create and maintain spreadsheets on department classes, students, etc. Develop presentation materials and assist in orientation. Generate documents with information on degree programs, Graduate School processes, etc. </t>
+    <t>Assist in administrative departmental tasks, faculty retreats/meeting planning, and department event planning. Create and maintain spreadsheets on department classes, students, etc. Develop presentation materials and assist in orientation. Generate documents with information on degree programs, Graduate School processes, etc. Participated in research with Dr. Jose Cordero, planning and implementing a systematic reivew of environmental exposures and preterm birth</t>
   </si>
   <si>
     <t xml:space="preserve">Instuctor, Assistant Manager </t>
@@ -197,6 +215,12 @@
   </si>
   <si>
     <t>Provided pediatric patient care for those needing 24-hour care or on hospice. Responsible for nutrition, hygiene, infection control, medication administration, respiratory status maintenance. Provided support to families of patients and socialization to patients throughout shifts.</t>
+  </si>
+  <si>
+    <t>Film Reviewer (Volunteer)</t>
+  </si>
+  <si>
+    <t>American Public Health Association</t>
   </si>
   <si>
     <t>org</t>
@@ -626,44 +650,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="4">
-        <v>2021.0</v>
-      </c>
-      <c r="F5" s="4">
-        <v>2021.0</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E6" s="4">
         <v>2021.0</v>
@@ -672,7 +670,7 @@
         <v>2021.0</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H6" s="4" t="b">
         <v>1</v>
@@ -680,58 +678,70 @@
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="4">
+        <v>2021.0</v>
+      </c>
       <c r="F7" s="4">
         <v>2021.0</v>
       </c>
-      <c r="G7" s="5"/>
+      <c r="G7" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="H7" s="4" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>28</v>
-      </c>
       <c r="C8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="4">
+        <v>2021.0</v>
+      </c>
       <c r="F8" s="4">
-        <v>2020.0</v>
-      </c>
-      <c r="G8" s="5"/>
+        <v>2021.0</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="H8" s="4" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4">
-        <v>2020.0</v>
+        <v>2021.0</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="4" t="b">
@@ -740,18 +750,18 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4">
-        <v>2019.0</v>
+        <v>2020.0</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="4" t="b">
@@ -760,18 +770,18 @@
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>27</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4">
-        <v>2019.0</v>
+        <v>2020.0</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="4" t="b">
@@ -780,53 +790,57 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="5"/>
+      <c r="C12" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="5" t="s">
-        <v>36</v>
-      </c>
+      <c r="F12" s="4">
+        <v>2019.0</v>
+      </c>
+      <c r="G12" s="5"/>
       <c r="H12" s="4" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="5"/>
+        <v>35</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="5" t="s">
-        <v>38</v>
-      </c>
+      <c r="F13" s="4">
+        <v>2019.0</v>
+      </c>
+      <c r="G13" s="5"/>
       <c r="H13" s="4" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H14" s="4" t="b">
         <v>1</v>
@@ -834,39 +848,43 @@
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="5"/>
+      <c r="G15" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="H15" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="5"/>
+      <c r="G16" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="H16" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>43</v>
@@ -884,7 +902,7 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>45</v>
@@ -902,25 +920,17 @@
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="C19" s="5"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E19" s="4">
-        <v>2021.0</v>
-      </c>
-      <c r="F19" s="4">
-        <v>2022.0</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="H19" s="4" t="b">
         <v>1</v>
@@ -928,25 +938,17 @@
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" s="4">
-        <v>2018.0</v>
-      </c>
-      <c r="F20" s="4">
-        <v>2019.0</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
       <c r="G20" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H20" s="4" t="b">
         <v>1</v>
@@ -954,25 +956,17 @@
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="4">
-        <v>2016.0</v>
-      </c>
-      <c r="F21" s="4">
-        <v>2016.0</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
       <c r="G21" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H21" s="4" t="b">
         <v>1</v>
@@ -980,25 +974,25 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>59</v>
+      <c r="C22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="E22" s="4">
-        <v>2016.0</v>
+        <v>2021.0</v>
       </c>
       <c r="F22" s="4">
-        <v>2016.0</v>
+        <v>2022.0</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H22" s="4" t="b">
         <v>1</v>
@@ -1006,19 +1000,25 @@
     </row>
     <row r="23">
       <c r="A23" s="4" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>63</v>
+        <v>57</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="E23" s="4">
-        <v>2021.0</v>
+        <v>2018.0</v>
       </c>
       <c r="F23" s="4">
-        <v>2021.0</v>
+        <v>2019.0</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="H23" s="4" t="b">
         <v>1</v>
@@ -1026,68 +1026,71 @@
     </row>
     <row r="24">
       <c r="A24" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" s="5"/>
       <c r="D24" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E24" s="4">
-        <v>2019.0</v>
+        <v>2016.0</v>
       </c>
       <c r="F24" s="4">
-        <v>2020.0</v>
-      </c>
-      <c r="G24" s="5"/>
+        <v>2016.0</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>63</v>
+      </c>
       <c r="H24" s="4" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="4" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B25" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="4">
+        <v>2016.0</v>
+      </c>
+      <c r="F25" s="4">
+        <v>2016.0</v>
+      </c>
+      <c r="G25" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E25" s="4">
-        <v>2019.0</v>
-      </c>
-      <c r="F25" s="4">
-        <v>2021.0</v>
-      </c>
-      <c r="G25" s="5"/>
       <c r="H25" s="4" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="4" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E26" s="4">
-        <v>2021.0</v>
-      </c>
-      <c r="F26" s="4">
-        <v>2021.0</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
       <c r="G26" s="5"/>
-      <c r="H26" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="H26" s="4"/>
     </row>
     <row r="27">
       <c r="A27" s="4"/>
@@ -1100,44 +1103,89 @@
       <c r="H27" s="4"/>
     </row>
     <row r="28">
-      <c r="A28" s="4"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="4"/>
+      <c r="A28" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" s="4">
+        <v>2021.0</v>
+      </c>
+      <c r="F28" s="4">
+        <v>2021.0</v>
+      </c>
+      <c r="H28" s="4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" s="4"/>
-      <c r="B29" s="5"/>
+      <c r="A29" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>72</v>
+      </c>
       <c r="C29" s="5"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
+      <c r="D29" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="4">
+        <v>2019.0</v>
+      </c>
+      <c r="F29" s="4">
+        <v>2020.0</v>
+      </c>
       <c r="G29" s="5"/>
-      <c r="H29" s="4"/>
+      <c r="H29" s="4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" s="4"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
+      <c r="A30" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30" s="4">
+        <v>2019.0</v>
+      </c>
+      <c r="F30" s="4">
+        <v>2021.0</v>
+      </c>
       <c r="G30" s="5"/>
-      <c r="H30" s="4"/>
+      <c r="H30" s="4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" s="4"/>
-      <c r="B31" s="5"/>
+      <c r="A31" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>72</v>
+      </c>
       <c r="C31" s="5"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
+      <c r="D31" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E31" s="4">
+        <v>2021.0</v>
+      </c>
+      <c r="F31" s="4">
+        <v>2021.0</v>
+      </c>
       <c r="G31" s="5"/>
-      <c r="H31" s="4"/>
+      <c r="H31" s="4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="4"/>
@@ -1150,29 +1198,54 @@
       <c r="H32" s="4"/>
     </row>
     <row r="33">
+      <c r="A33" s="4"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
       <c r="G33" s="5"/>
+      <c r="H33" s="4"/>
     </row>
     <row r="34">
+      <c r="A34" s="4"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
       <c r="G34" s="5"/>
+      <c r="H34" s="4"/>
     </row>
     <row r="35">
+      <c r="A35" s="4"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
       <c r="G35" s="5"/>
+      <c r="H35" s="4"/>
     </row>
     <row r="36">
+      <c r="A36" s="4"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
       <c r="G36" s="5"/>
+      <c r="H36" s="4"/>
     </row>
     <row r="37">
+      <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
       <c r="G37" s="5"/>
+      <c r="H37" s="4"/>
     </row>
     <row r="38">
       <c r="B38" s="5"/>
@@ -1367,32 +1440,32 @@
     <row r="76">
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
-      <c r="G76" s="8"/>
+      <c r="G76" s="5"/>
     </row>
     <row r="77">
-      <c r="B77" s="9"/>
-      <c r="C77" s="9"/>
-      <c r="G77" s="9"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="G77" s="5"/>
     </row>
     <row r="78">
-      <c r="B78" s="9"/>
-      <c r="C78" s="9"/>
-      <c r="G78" s="9"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+      <c r="G78" s="5"/>
     </row>
     <row r="79">
-      <c r="B79" s="9"/>
-      <c r="C79" s="9"/>
-      <c r="G79" s="9"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="G79" s="5"/>
     </row>
     <row r="80">
-      <c r="B80" s="9"/>
-      <c r="C80" s="9"/>
-      <c r="G80" s="9"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
+      <c r="G80" s="5"/>
     </row>
     <row r="81">
-      <c r="B81" s="9"/>
-      <c r="C81" s="9"/>
-      <c r="G81" s="9"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="G81" s="8"/>
     </row>
     <row r="82">
       <c r="B82" s="9"/>
@@ -6133,6 +6206,31 @@
       <c r="B1029" s="9"/>
       <c r="C1029" s="9"/>
       <c r="G1029" s="9"/>
+    </row>
+    <row r="1030">
+      <c r="B1030" s="9"/>
+      <c r="C1030" s="9"/>
+      <c r="G1030" s="9"/>
+    </row>
+    <row r="1031">
+      <c r="B1031" s="9"/>
+      <c r="C1031" s="9"/>
+      <c r="G1031" s="9"/>
+    </row>
+    <row r="1032">
+      <c r="B1032" s="9"/>
+      <c r="C1032" s="9"/>
+      <c r="G1032" s="9"/>
+    </row>
+    <row r="1033">
+      <c r="B1033" s="9"/>
+      <c r="C1033" s="9"/>
+      <c r="G1033" s="9"/>
+    </row>
+    <row r="1034">
+      <c r="B1034" s="9"/>
+      <c r="C1034" s="9"/>
+      <c r="G1034" s="9"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -6155,10 +6253,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="10" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
@@ -6187,10 +6285,10 @@
     </row>
     <row r="2">
       <c r="A2" s="12" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
@@ -6219,7 +6317,7 @@
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B3" s="4">
         <v>5.0</v>
@@ -6227,7 +6325,7 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B4" s="4">
         <v>4.5</v>
@@ -6235,7 +6333,7 @@
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B5" s="4">
         <v>4.0</v>
@@ -6243,7 +6341,7 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B6" s="4">
         <v>4.0</v>
@@ -6251,7 +6349,7 @@
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B7" s="4">
         <v>3.5</v>
@@ -6259,7 +6357,7 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B8" s="4">
         <v>3.0</v>
@@ -6267,7 +6365,7 @@
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B9" s="4">
         <v>3.0</v>
@@ -6294,10 +6392,10 @@
   <sheetData>
     <row r="1" ht="33.0" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
@@ -6329,7 +6427,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
@@ -6358,34 +6456,34 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7">
@@ -9394,13 +9492,13 @@
   <sheetData>
     <row r="1" ht="36.75" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
@@ -9432,65 +9530,65 @@
         <v>2</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/Hammerton CV/cv_data.xlsx
+++ b/Hammerton CV/cv_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="117">
   <si>
     <t>section</t>
   </si>
@@ -49,7 +49,10 @@
     <t>Athens, GA</t>
   </si>
   <si>
-    <t>University of Georgia (Current)</t>
+    <t>University of Georgia</t>
+  </si>
+  <si>
+    <t>Present</t>
   </si>
   <si>
     <t xml:space="preserve">BS, Health Science </t>
@@ -85,16 +88,13 @@
     <t>Preterm birth and environmental exposures: Systematic review (In Progress)</t>
   </si>
   <si>
-    <t>University of Georgia</t>
-  </si>
-  <si>
     <t>Research Assisantship, Dr. Jose Cordero</t>
   </si>
   <si>
     <t>Prenatal exposure to flame retardants and adverse pregnancy outcomes: A systematic review (In Progress)</t>
   </si>
   <si>
-    <t>Contributor, Co-Author</t>
+    <t>Co-Author</t>
   </si>
   <si>
     <t>certs</t>
@@ -160,7 +160,7 @@
     <t>Communication</t>
   </si>
   <si>
-    <t>Participated in clinical, research, and private groups requiring large amounts of communication and collaboration, building experience in healthy and efficient communication skills</t>
+    <t>Experience in clinical, research, and private groups requiring large amounts of collaboration</t>
   </si>
   <si>
     <t>Health Education</t>
@@ -184,7 +184,7 @@
     <t xml:space="preserve">University of Georgia, Department of Epidemiology &amp; Biostatistics </t>
   </si>
   <si>
-    <t>Assist in administrative departmental tasks, faculty retreats/meeting planning, and department event planning. Create and maintain spreadsheets on department classes, students, etc. Develop presentation materials and assist in orientation. Generate documents with information on degree programs, Graduate School processes, etc. Participated in research with Dr. Jose Cordero, planning and implementing a systematic reivew of environmental exposures and preterm birth</t>
+    <t>Assist in administrative departmental tasks, faculty retreats/meeting planning, and department event planning. Create and maintain spreadsheets on department classes, students, etc. Develop presentation materials and assist in orientation. Generate documents with information on degree programs, Graduate School processes, etc. Participate in research with Dr. Jose Cordero, planning and implementing a systematic review of environmental exposures and preterm birth.</t>
   </si>
   <si>
     <t xml:space="preserve">Instuctor, Assistant Manager </t>
@@ -193,7 +193,7 @@
     <t>ILoveKickboxing</t>
   </si>
   <si>
-    <t>Promoted to assistant manager after 9 months of employment. Responsible for personal health promotion and education for members, instructing group fitness classes, data management. with membership and point-of-sale systems. Integral part in data transfer when changing systems.</t>
+    <t>Promoted to assistant manager after 9 months of employment. Responsible for personal health promotion and education for members, instructing group fitness classes, data management with membership and point-of-sale systems. Integral part in data transfer when changing systems.</t>
   </si>
   <si>
     <t>Licensed Vocational Nurse</t>
@@ -235,6 +235,9 @@
     <t>Member</t>
   </si>
   <si>
+    <t>Center for the Ecology of Infectious Diseases (CEID)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Eta Sigma Gamma (ESG) | Health Science Honor Society </t>
   </si>
   <si>
@@ -242,6 +245,9 @@
   </si>
   <si>
     <t>Council of State and Territorial Epidemiologists (CSTE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Present </t>
   </si>
   <si>
     <t>Name of language</t>
@@ -594,8 +600,8 @@
       <c r="E2" s="4">
         <v>2020.0</v>
       </c>
-      <c r="F2" s="4">
-        <v>2022.0</v>
+      <c r="F2" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="4" t="b">
@@ -607,13 +613,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" s="4">
         <v>2018.0</v>
@@ -631,13 +637,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" s="4">
         <v>2014.0</v>
@@ -652,25 +658,25 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6" s="4">
         <v>2021.0</v>
       </c>
-      <c r="F6" s="4">
-        <v>2021.0</v>
+      <c r="F6" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H6" s="4" t="b">
         <v>1</v>
@@ -678,22 +684,22 @@
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="E7" s="4">
         <v>2021.0</v>
       </c>
-      <c r="F7" s="4">
-        <v>2021.0</v>
+      <c r="F7" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>24</v>
@@ -704,7 +710,7 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>25</v>
@@ -713,13 +719,13 @@
         <v>10</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="E8" s="4">
         <v>2021.0</v>
       </c>
-      <c r="F8" s="4">
-        <v>2021.0</v>
+      <c r="F8" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>26</v>
@@ -1006,7 +1012,7 @@
         <v>57</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>58</v>
@@ -1115,8 +1121,8 @@
       <c r="E28" s="4">
         <v>2021.0</v>
       </c>
-      <c r="F28" s="4">
-        <v>2021.0</v>
+      <c r="F28" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="H28" s="4" t="b">
         <v>1</v>
@@ -1134,10 +1140,10 @@
         <v>73</v>
       </c>
       <c r="E29" s="4">
-        <v>2019.0</v>
-      </c>
-      <c r="F29" s="4">
-        <v>2020.0</v>
+        <v>2021.0</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="G29" s="5"/>
       <c r="H29" s="4" t="b">
@@ -1151,14 +1157,15 @@
       <c r="B30" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="C30" s="5"/>
+      <c r="D30" s="4" t="s">
         <v>74</v>
       </c>
       <c r="E30" s="4">
         <v>2019.0</v>
       </c>
       <c r="F30" s="4">
-        <v>2021.0</v>
+        <v>2020.0</v>
       </c>
       <c r="G30" s="5"/>
       <c r="H30" s="4" t="b">
@@ -1172,15 +1179,14 @@
       <c r="B31" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="5" t="s">
         <v>75</v>
       </c>
       <c r="E31" s="4">
-        <v>2021.0</v>
-      </c>
-      <c r="F31" s="4">
-        <v>2021.0</v>
+        <v>2019.0</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="G31" s="5"/>
       <c r="H31" s="4" t="b">
@@ -1188,14 +1194,26 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="4"/>
-      <c r="B32" s="5"/>
+      <c r="A32" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>72</v>
+      </c>
       <c r="C32" s="5"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
+      <c r="D32" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E32" s="4">
+        <v>2021.0</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>77</v>
+      </c>
       <c r="G32" s="5"/>
-      <c r="H32" s="4"/>
+      <c r="H32" s="4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="4"/>
@@ -1248,9 +1266,14 @@
       <c r="H37" s="4"/>
     </row>
     <row r="38">
+      <c r="A38" s="4"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
       <c r="G38" s="5"/>
+      <c r="H38" s="4"/>
     </row>
     <row r="39">
       <c r="B39" s="5"/>
@@ -1465,12 +1488,12 @@
     <row r="81">
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
-      <c r="G81" s="8"/>
+      <c r="G81" s="5"/>
     </row>
     <row r="82">
-      <c r="B82" s="9"/>
-      <c r="C82" s="9"/>
-      <c r="G82" s="9"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="G82" s="8"/>
     </row>
     <row r="83">
       <c r="B83" s="9"/>
@@ -6231,6 +6254,11 @@
       <c r="B1034" s="9"/>
       <c r="C1034" s="9"/>
       <c r="G1034" s="9"/>
+    </row>
+    <row r="1035">
+      <c r="B1035" s="9"/>
+      <c r="C1035" s="9"/>
+      <c r="G1035" s="9"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -6253,10 +6281,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
@@ -6285,10 +6313,10 @@
     </row>
     <row r="2">
       <c r="A2" s="12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
@@ -6317,7 +6345,7 @@
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B3" s="4">
         <v>5.0</v>
@@ -6325,7 +6353,7 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B4" s="4">
         <v>4.5</v>
@@ -6333,7 +6361,7 @@
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B5" s="4">
         <v>4.0</v>
@@ -6341,7 +6369,7 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B6" s="4">
         <v>4.0</v>
@@ -6349,7 +6377,7 @@
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B7" s="4">
         <v>3.5</v>
@@ -6357,7 +6385,7 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B8" s="4">
         <v>3.0</v>
@@ -6365,7 +6393,7 @@
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B9" s="4">
         <v>3.0</v>
@@ -6392,10 +6420,10 @@
   <sheetData>
     <row r="1" ht="33.0" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
@@ -6427,7 +6455,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
@@ -6456,34 +6484,34 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7">
@@ -9492,13 +9520,13 @@
   <sheetData>
     <row r="1" ht="36.75" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
@@ -9530,65 +9558,65 @@
         <v>2</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/Hammerton CV/cv_data.xlsx
+++ b/Hammerton CV/cv_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="120">
   <si>
     <t>section</t>
   </si>
@@ -43,7 +43,7 @@
     <t>education</t>
   </si>
   <si>
-    <t xml:space="preserve">MS Epidemiology &amp; Biostatistics | Graduate Certificate in Infectious Disease Epidemiology </t>
+    <t>PhD Epidemiology &amp; Biostatistics (Data Analysis &amp; Modeling Emphasis)</t>
   </si>
   <si>
     <t>Athens, GA</t>
@@ -52,46 +52,52 @@
     <t>University of Georgia</t>
   </si>
   <si>
+    <t xml:space="preserve">Present </t>
+  </si>
+  <si>
+    <t>MS Epidemiology &amp; Biostatistics (Epidemiology Emphasis) | Certificate in Infectious Disease Epidemiology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BS, Health Science </t>
+  </si>
+  <si>
+    <t>Columbus, GA</t>
+  </si>
+  <si>
+    <t>Columbus State University</t>
+  </si>
+  <si>
+    <t>Diploma, Practical Nursing (summa cum laude, Director’s Award for Consistent Academic and Clinical Excellence)</t>
+  </si>
+  <si>
+    <t>Chattanooga, TN</t>
+  </si>
+  <si>
+    <t>Chattanooga College</t>
+  </si>
+  <si>
+    <t>projects</t>
+  </si>
+  <si>
+    <t>Examining antibodies as correlates of protection against norovirus clinical outcomes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Georgia </t>
+  </si>
+  <si>
     <t>Present</t>
   </si>
   <si>
-    <t xml:space="preserve">BS, Health Science </t>
-  </si>
-  <si>
-    <t>Columbus, GA</t>
-  </si>
-  <si>
-    <t>Columbus State University</t>
-  </si>
-  <si>
-    <t>Diploma, Practical Nursing (summa cum laude, Director’s Award for Consistent Academic and Clinical Excellence)</t>
-  </si>
-  <si>
-    <t>Chattanooga, TN</t>
-  </si>
-  <si>
-    <t>Chattanooga College</t>
-  </si>
-  <si>
-    <t>projects</t>
-  </si>
-  <si>
-    <t>Antibody levels and disease outcomes in a norovirus challenge study (In Progress)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Georgia </t>
-  </si>
-  <si>
     <t xml:space="preserve">MS Thesis Project, Advisor - Dr. Andreas Handel </t>
   </si>
   <si>
-    <t>Preterm birth and environmental exposures: Systematic review (In Progress)</t>
+    <t>Preterm birth and the environment</t>
   </si>
   <si>
     <t>Research Assisantship, Dr. Jose Cordero</t>
   </si>
   <si>
-    <t>Prenatal exposure to flame retardants and adverse pregnancy outcomes: A systematic review (In Progress)</t>
+    <t xml:space="preserve">Prenatal exposure to flame retardants and adverse pregnancy outcomes: A systematic review </t>
   </si>
   <si>
     <t>Co-Author</t>
@@ -178,12 +184,18 @@
     <t>rel_exp</t>
   </si>
   <si>
-    <t>Graduate Assisant (Current)</t>
+    <t>Graduate Research Assisant</t>
   </si>
   <si>
     <t xml:space="preserve">University of Georgia, Department of Epidemiology &amp; Biostatistics </t>
   </si>
   <si>
+    <t xml:space="preserve">Assist Dr. Andreas Handel in research for the Center for Influenza Vaccine Research for High-Risk Populations (CIVR-HRP) grant at the University of Georgia. Aid in research and data analysis on influenza vaccines, particularly data related to universal iinfluenza vaccine development. </t>
+  </si>
+  <si>
+    <t>Graduate Departmental Assisant</t>
+  </si>
+  <si>
     <t>Assist in administrative departmental tasks, faculty retreats/meeting planning, and department event planning. Create and maintain spreadsheets on department classes, students, etc. Develop presentation materials and assist in orientation. Generate documents with information on degree programs, Graduate School processes, etc. Participate in research with Dr. Jose Cordero, planning and implementing a systematic review of environmental exposures and preterm birth.</t>
   </si>
   <si>
@@ -245,9 +257,6 @@
   </si>
   <si>
     <t>Council of State and Territorial Epidemiologists (CSTE)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Present </t>
   </si>
   <si>
     <t>Name of language</t>
@@ -530,16 +539,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="18.29"/>
-    <col customWidth="1" min="2" max="2" width="27.57"/>
-    <col customWidth="1" min="3" max="3" width="21.43"/>
-    <col customWidth="1" min="4" max="4" width="19.57"/>
-    <col customWidth="1" min="5" max="5" width="11.43"/>
-    <col customWidth="1" min="6" max="6" width="11.0"/>
-    <col customWidth="1" min="7" max="7" width="33.29"/>
-    <col customWidth="1" min="8" max="8" width="18.57"/>
+    <col customWidth="1" min="1" max="1" width="16.0"/>
+    <col customWidth="1" min="2" max="2" width="24.13"/>
+    <col customWidth="1" min="3" max="3" width="18.75"/>
+    <col customWidth="1" min="4" max="4" width="17.13"/>
+    <col customWidth="1" min="5" max="5" width="10.0"/>
+    <col customWidth="1" min="6" max="6" width="9.63"/>
+    <col customWidth="1" min="7" max="7" width="29.13"/>
+    <col customWidth="1" min="8" max="8" width="16.25"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1">
@@ -598,7 +607,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="4">
-        <v>2020.0</v>
+        <v>2022.0</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>12</v>
@@ -615,19 +624,19 @@
       <c r="B3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>15</v>
+      <c r="C3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="E3" s="4">
-        <v>2018.0</v>
+        <v>2020.0</v>
       </c>
       <c r="F3" s="4">
-        <v>2020.0</v>
-      </c>
-      <c r="G3" s="5"/>
+        <v>2022.0</v>
+      </c>
+      <c r="G3" s="6"/>
       <c r="H3" s="4" t="b">
         <v>1</v>
       </c>
@@ -637,69 +646,67 @@
         <v>8</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="E4" s="4">
-        <v>2014.0</v>
+        <v>2018.0</v>
       </c>
       <c r="F4" s="4">
-        <v>2015.0</v>
-      </c>
-      <c r="G4" s="7"/>
+        <v>2020.0</v>
+      </c>
+      <c r="G4" s="5"/>
       <c r="H4" s="4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="4" t="s">
+    <row r="5">
+      <c r="A5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="4">
-        <v>2021.0</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="4" t="b">
+      <c r="E5" s="4">
+        <v>2014.0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>2015.0</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="4" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E7" s="4">
         <v>2021.0</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>24</v>
@@ -710,7 +717,7 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>25</v>
@@ -724,8 +731,8 @@
       <c r="E8" s="4">
         <v>2021.0</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>12</v>
+      <c r="F8" s="4">
+        <v>2022.0</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>26</v>
@@ -736,27 +743,33 @@
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="C9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="4">
+        <v>2021.0</v>
+      </c>
+      <c r="F9" s="4">
+        <v>2022.0</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4">
-        <v>2021.0</v>
-      </c>
-      <c r="G9" s="5"/>
       <c r="H9" s="4" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>30</v>
@@ -767,7 +780,7 @@
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4">
-        <v>2020.0</v>
+        <v>2021.0</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="4" t="b">
@@ -776,7 +789,7 @@
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>32</v>
@@ -796,18 +809,18 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4">
-        <v>2019.0</v>
+        <v>2020.0</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="4" t="b">
@@ -816,13 +829,13 @@
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -836,25 +849,27 @@
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="5"/>
+      <c r="C14" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="5" t="s">
-        <v>38</v>
-      </c>
+      <c r="F14" s="4">
+        <v>2019.0</v>
+      </c>
+      <c r="G14" s="5"/>
       <c r="H14" s="4" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>39</v>
@@ -872,7 +887,7 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>41</v>
@@ -890,7 +905,7 @@
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>43</v>
@@ -908,7 +923,7 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>45</v>
@@ -926,7 +941,7 @@
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>47</v>
@@ -935,7 +950,7 @@
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="6" t="s">
+      <c r="G19" s="5" t="s">
         <v>48</v>
       </c>
       <c r="H19" s="4" t="b">
@@ -944,7 +959,7 @@
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>49</v>
@@ -953,7 +968,7 @@
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="6" t="s">
         <v>50</v>
       </c>
       <c r="H20" s="4" t="b">
@@ -962,7 +977,7 @@
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>51</v>
@@ -980,25 +995,17 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="C22" s="5"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" s="4">
-        <v>2021.0</v>
-      </c>
-      <c r="F22" s="4">
-        <v>2022.0</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>56</v>
       </c>
       <c r="H22" s="4" t="b">
         <v>1</v>
@@ -1006,25 +1013,25 @@
     </row>
     <row r="23">
       <c r="A23" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="5" t="s">
+      <c r="E23" s="4">
+        <v>2022.0</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="E23" s="4">
-        <v>2018.0</v>
-      </c>
-      <c r="F23" s="4">
-        <v>2019.0</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="H23" s="4" t="b">
         <v>1</v>
@@ -1032,25 +1039,25 @@
     </row>
     <row r="24">
       <c r="A24" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="4">
+        <v>2021.0</v>
+      </c>
+      <c r="F24" s="4">
+        <v>2022.0</v>
+      </c>
+      <c r="G24" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E24" s="4">
-        <v>2016.0</v>
-      </c>
-      <c r="F24" s="4">
-        <v>2016.0</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>63</v>
       </c>
       <c r="H24" s="4" t="b">
         <v>1</v>
@@ -1058,135 +1065,144 @@
     </row>
     <row r="25">
       <c r="A25" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>65</v>
+        <v>55</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="E25" s="4">
-        <v>2016.0</v>
+        <v>2018.0</v>
       </c>
       <c r="F25" s="4">
-        <v>2016.0</v>
+        <v>2019.0</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H25" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B26" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" s="4">
+        <v>2016.0</v>
+      </c>
+      <c r="F26" s="4">
+        <v>2016.0</v>
+      </c>
+      <c r="G26" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="4" t="s">
+      <c r="H26" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="4"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="4"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="4"/>
+      <c r="D27" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="4">
+        <v>2016.0</v>
+      </c>
+      <c r="F27" s="4">
+        <v>2016.0</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H27" s="4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>70</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="5"/>
       <c r="D28" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E28" s="4">
-        <v>2021.0</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H28" s="4" t="b">
-        <v>1</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="4"/>
     </row>
     <row r="29">
-      <c r="A29" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>72</v>
-      </c>
+      <c r="A29" s="4"/>
+      <c r="B29" s="5"/>
       <c r="C29" s="5"/>
-      <c r="D29" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E29" s="4">
-        <v>2021.0</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
       <c r="G29" s="5"/>
-      <c r="H29" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="H29" s="4"/>
     </row>
     <row r="30">
       <c r="A30" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C30" s="5"/>
+        <v>73</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>74</v>
+      </c>
       <c r="D30" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E30" s="4">
-        <v>2019.0</v>
-      </c>
-      <c r="F30" s="4">
-        <v>2020.0</v>
-      </c>
-      <c r="G30" s="5"/>
+        <v>2021.0</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="H30" s="4" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="E31" s="4">
-        <v>2019.0</v>
+        <v>2021.0</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G31" s="5"/>
       <c r="H31" s="4" t="b">
@@ -1195,20 +1211,20 @@
     </row>
     <row r="32">
       <c r="A32" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E32" s="4">
-        <v>2021.0</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>77</v>
+        <v>2019.0</v>
+      </c>
+      <c r="F32" s="4">
+        <v>2020.0</v>
       </c>
       <c r="G32" s="5"/>
       <c r="H32" s="4" t="b">
@@ -1216,24 +1232,47 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="4"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
+      <c r="A33" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E33" s="4">
+        <v>2019.0</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="G33" s="5"/>
-      <c r="H33" s="4"/>
+      <c r="H33" s="4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="4"/>
-      <c r="B34" s="5"/>
+      <c r="A34" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>76</v>
+      </c>
       <c r="C34" s="5"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
+      <c r="D34" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E34" s="4">
+        <v>2021.0</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="G34" s="5"/>
-      <c r="H34" s="4"/>
+      <c r="H34" s="4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="4"/>
@@ -1276,14 +1315,24 @@
       <c r="H38" s="4"/>
     </row>
     <row r="39">
+      <c r="A39" s="4"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
       <c r="G39" s="5"/>
+      <c r="H39" s="4"/>
     </row>
     <row r="40">
+      <c r="A40" s="4"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
       <c r="G40" s="5"/>
+      <c r="H40" s="4"/>
     </row>
     <row r="41">
       <c r="B41" s="5"/>
@@ -1493,17 +1542,17 @@
     <row r="82">
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
-      <c r="G82" s="8"/>
+      <c r="G82" s="5"/>
     </row>
     <row r="83">
-      <c r="B83" s="9"/>
-      <c r="C83" s="9"/>
-      <c r="G83" s="9"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="G83" s="5"/>
     </row>
     <row r="84">
-      <c r="B84" s="9"/>
-      <c r="C84" s="9"/>
-      <c r="G84" s="9"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+      <c r="G84" s="8"/>
     </row>
     <row r="85">
       <c r="B85" s="9"/>
@@ -6259,6 +6308,16 @@
       <c r="B1035" s="9"/>
       <c r="C1035" s="9"/>
       <c r="G1035" s="9"/>
+    </row>
+    <row r="1036">
+      <c r="B1036" s="9"/>
+      <c r="C1036" s="9"/>
+      <c r="G1036" s="9"/>
+    </row>
+    <row r="1037">
+      <c r="B1037" s="9"/>
+      <c r="C1037" s="9"/>
+      <c r="G1037" s="9"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -6273,18 +6332,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="17.71"/>
-    <col customWidth="1" min="2" max="2" width="16.0"/>
+    <col customWidth="1" min="1" max="1" width="15.5"/>
+    <col customWidth="1" min="2" max="2" width="14.0"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="10" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
@@ -6313,10 +6372,10 @@
     </row>
     <row r="2">
       <c r="A2" s="12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
@@ -6345,7 +6404,7 @@
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B3" s="4">
         <v>5.0</v>
@@ -6353,7 +6412,7 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B4" s="4">
         <v>4.5</v>
@@ -6361,7 +6420,7 @@
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B5" s="4">
         <v>4.0</v>
@@ -6369,7 +6428,7 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B6" s="4">
         <v>4.0</v>
@@ -6377,7 +6436,7 @@
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B7" s="4">
         <v>3.5</v>
@@ -6385,7 +6444,7 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B8" s="4">
         <v>3.0</v>
@@ -6393,7 +6452,7 @@
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B9" s="4">
         <v>3.0</v>
@@ -6412,18 +6471,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="28.0"/>
-    <col customWidth="1" min="2" max="2" width="135.86"/>
+    <col customWidth="1" min="1" max="1" width="24.5"/>
+    <col customWidth="1" min="2" max="2" width="118.88"/>
   </cols>
   <sheetData>
     <row r="1" ht="33.0" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
@@ -6455,7 +6514,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
@@ -6484,34 +6543,34 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7">
@@ -9512,21 +9571,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="31.14"/>
-    <col customWidth="1" min="3" max="3" width="31.71"/>
+    <col customWidth="1" min="2" max="2" width="27.25"/>
+    <col customWidth="1" min="3" max="3" width="27.75"/>
   </cols>
   <sheetData>
     <row r="1" ht="36.75" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
@@ -9558,65 +9617,65 @@
         <v>2</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
